--- a/data/trans_orig/P6715-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Dificultad-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4710</v>
+        <v>4302</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003751410430171215</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01687198747259445</v>
+        <v>0.01540837500025094</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5228</v>
+        <v>5691</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002084176670475355</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01040441065960503</v>
+        <v>0.0113250174552798</v>
       </c>
     </row>
     <row r="5">
@@ -805,19 +805,19 @@
         <v>5265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1937</v>
+        <v>1930</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11189</v>
+        <v>11756</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01885818209202437</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006936930579638134</v>
+        <v>0.006911403644018441</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04007722360313041</v>
+        <v>0.04210921092312125</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -826,19 +826,19 @@
         <v>8782</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4127</v>
+        <v>4213</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16437</v>
+        <v>17272</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03932305314953628</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01848076056654524</v>
+        <v>0.01886552746050871</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07359784578521442</v>
+        <v>0.07733600036708836</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -847,19 +847,19 @@
         <v>14047</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7858</v>
+        <v>7647</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22548</v>
+        <v>22833</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02795335430791793</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01563676023833563</v>
+        <v>0.01521702935086063</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04487014994751163</v>
+        <v>0.0454367881614984</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>43281</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32584</v>
+        <v>31540</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57434</v>
+        <v>57182</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1550270235764916</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1167095976542693</v>
+        <v>0.1129727649988446</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2057186464489539</v>
+        <v>0.2048169540485405</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>38</v>
@@ -897,19 +897,19 @@
         <v>41342</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29941</v>
+        <v>31303</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54109</v>
+        <v>54815</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1851122856249668</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1340640343420188</v>
+        <v>0.1401606349178012</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2422783334133103</v>
+        <v>0.245441671295556</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>79</v>
@@ -918,19 +918,19 @@
         <v>84623</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>67483</v>
+        <v>68059</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>101537</v>
+        <v>102451</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1683977718564192</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1342895619429401</v>
+        <v>0.1354365147136908</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2020561620307103</v>
+        <v>0.203874329921541</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>59250</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46516</v>
+        <v>45280</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74741</v>
+        <v>74079</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2122262821341207</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1666137055415815</v>
+        <v>0.1621859660515351</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2677100975005607</v>
+        <v>0.2653404880601736</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -968,19 +968,19 @@
         <v>46130</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35643</v>
+        <v>35423</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60487</v>
+        <v>59421</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2065524661714852</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1595967523761292</v>
+        <v>0.1586109866377709</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2708366609538196</v>
+        <v>0.2660615901463269</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>98</v>
@@ -989,19 +989,19 @@
         <v>105381</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87795</v>
+        <v>88023</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126297</v>
+        <v>126462</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2097046765419607</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1747102727525762</v>
+        <v>0.1751625673810045</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2513281832318728</v>
+        <v>0.2516560864787595</v>
       </c>
     </row>
     <row r="8">
@@ -1018,19 +1018,19 @@
         <v>170341</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>151917</v>
+        <v>154194</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>186069</v>
+        <v>187093</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6101371017671922</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5441430861934564</v>
+        <v>0.5523016783149766</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6664736851033535</v>
+        <v>0.6701386592105026</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>116</v>
@@ -1039,19 +1039,19 @@
         <v>127080</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>111747</v>
+        <v>112182</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>141600</v>
+        <v>142191</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5690121950540118</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5003564000158265</v>
+        <v>0.5023049032203094</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6340270886218807</v>
+        <v>0.636674758424183</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>275</v>
@@ -1060,19 +1060,19 @@
         <v>297421</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>272448</v>
+        <v>274257</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>318288</v>
+        <v>319652</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5918600206232267</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5421636147219419</v>
+        <v>0.5457635978248399</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6333858897683772</v>
+        <v>0.6360998899618022</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6970</v>
+        <v>7336</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005933115499018087</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01828757977600644</v>
+        <v>0.01924764801632721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1185,19 +1185,19 @@
         <v>3240</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>987</v>
+        <v>970</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9579</v>
+        <v>8983</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01289785611403205</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003930786365603932</v>
+        <v>0.003859473830831517</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03813211285546412</v>
+        <v>0.03575742345307657</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1206,19 +1206,19 @@
         <v>5501</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2128</v>
+        <v>2106</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12722</v>
+        <v>12036</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008700047924001269</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003364728648098404</v>
+        <v>0.003330314872294499</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02011938288202876</v>
+        <v>0.01903471840867567</v>
       </c>
     </row>
     <row r="11">
@@ -1235,19 +1235,19 @@
         <v>3237</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9453</v>
+        <v>9575</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008494626515324811</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002350782823776393</v>
+        <v>0.002359627861564342</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02480288871928606</v>
+        <v>0.02512406704520538</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1256,19 +1256,19 @@
         <v>5224</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1963</v>
+        <v>2036</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11782</v>
+        <v>11632</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02079371184658719</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007812357545641137</v>
+        <v>0.008104828986141876</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0469019692060555</v>
+        <v>0.04630436346891126</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1277,19 +1277,19 @@
         <v>8461</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3925</v>
+        <v>3773</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15760</v>
+        <v>17367</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01338077230047357</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00620753409386816</v>
+        <v>0.005966443613552514</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02492434241864287</v>
+        <v>0.02746460280482204</v>
       </c>
     </row>
     <row r="12">
@@ -1306,19 +1306,19 @@
         <v>40253</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29355</v>
+        <v>28731</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54475</v>
+        <v>54114</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1056167700068087</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07702294181727154</v>
+        <v>0.07538694019837081</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1429352398007822</v>
+        <v>0.1419875362465024</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -1327,19 +1327,19 @@
         <v>42947</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30723</v>
+        <v>31792</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55224</v>
+        <v>57573</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1709615240178854</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1223000727873779</v>
+        <v>0.1265548028498787</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2198297059684763</v>
+        <v>0.2291801594015524</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>78</v>
@@ -1348,19 +1348,19 @@
         <v>83200</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>67674</v>
+        <v>67614</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>101265</v>
+        <v>102194</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1315767488014296</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1070231797644078</v>
+        <v>0.1069288973498186</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1601460007895638</v>
+        <v>0.1616149921283696</v>
       </c>
     </row>
     <row r="13">
@@ -1377,19 +1377,19 @@
         <v>96868</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79008</v>
+        <v>80495</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113972</v>
+        <v>115449</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2541662665728173</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.207304292192177</v>
+        <v>0.2112067071216477</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2990450694467327</v>
+        <v>0.3029206029204445</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -1398,19 +1398,19 @@
         <v>55173</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41992</v>
+        <v>42613</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69651</v>
+        <v>71924</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2196265954641225</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1671592032375064</v>
+        <v>0.1696283437493321</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2772590426596677</v>
+        <v>0.2863102828611384</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>145</v>
@@ -1419,19 +1419,19 @@
         <v>152040</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>130332</v>
+        <v>130284</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>172150</v>
+        <v>174916</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2404444438630263</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2061134142803675</v>
+        <v>0.206038147456112</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2722469114137884</v>
+        <v>0.276621365634909</v>
       </c>
     </row>
     <row r="14">
@@ -1448,19 +1448,19 @@
         <v>238501</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>218340</v>
+        <v>219290</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>256663</v>
+        <v>258948</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6257892214060311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5728904526856469</v>
+        <v>0.5753830340597086</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.673443160690484</v>
+        <v>0.6794405050024539</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>133</v>
@@ -1469,19 +1469,19 @@
         <v>144627</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>128064</v>
+        <v>126721</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>160155</v>
+        <v>160167</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5757203125573729</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5097870226770946</v>
+        <v>0.5044396533333083</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6375315765204398</v>
+        <v>0.637581455110886</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>362</v>
@@ -1490,19 +1490,19 @@
         <v>383128</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>358779</v>
+        <v>356801</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>408234</v>
+        <v>408824</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6058979871110692</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5673906306857577</v>
+        <v>0.5642632736269255</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6456016759492403</v>
+        <v>0.6465346198600659</v>
       </c>
     </row>
     <row r="15">
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7025</v>
+        <v>6277</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004484346180512297</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01541184388993906</v>
+        <v>0.01377086654826655</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5259</v>
+        <v>5548</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003755417737522166</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01887153681491157</v>
+        <v>0.01991036889862972</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1636,19 +1636,19 @@
         <v>3091</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8447</v>
+        <v>8251</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004207791012907084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001377197782692537</v>
+        <v>0.001385664609088091</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01150093699425249</v>
+        <v>0.01123322055245615</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>6893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2069</v>
+        <v>2849</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15471</v>
+        <v>15153</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01512310764102839</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004539533458461421</v>
+        <v>0.00624938269596895</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03394146987451139</v>
+        <v>0.03324361220238274</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1686,19 +1686,19 @@
         <v>5213</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2003</v>
+        <v>1941</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11541</v>
+        <v>10886</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01870627198852719</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007188538954977461</v>
+        <v>0.006964374909205775</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04141535969779193</v>
+        <v>0.03906422604451216</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>12106</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6023</v>
+        <v>6891</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21391</v>
+        <v>21251</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01648255880006756</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008200483157108317</v>
+        <v>0.009382653298410093</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02912426714677162</v>
+        <v>0.02893341185597416</v>
       </c>
     </row>
     <row r="18">
@@ -1736,19 +1736,19 @@
         <v>48780</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36353</v>
+        <v>36781</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>62430</v>
+        <v>63703</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.107014838090707</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0797522346063345</v>
+        <v>0.08069124062349026</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1369614832537253</v>
+        <v>0.1397555419520428</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>34</v>
@@ -1757,19 +1757,19 @@
         <v>34972</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>25101</v>
+        <v>24747</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46510</v>
+        <v>46395</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1255003128080141</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09007538035345039</v>
+        <v>0.0888054101792194</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1669053140773495</v>
+        <v>0.1664917511443358</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>82</v>
@@ -1778,19 +1778,19 @@
         <v>83752</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>68127</v>
+        <v>68770</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>102832</v>
+        <v>102893</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1140282200047614</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09275448781956476</v>
+        <v>0.0936306790150872</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1400066482278078</v>
+        <v>0.1400897257410404</v>
       </c>
     </row>
     <row r="19">
@@ -1807,19 +1807,19 @@
         <v>108443</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>90856</v>
+        <v>89527</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>129823</v>
+        <v>127655</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2379066092278042</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1993234367451711</v>
+        <v>0.1964095268768392</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2848125581293147</v>
+        <v>0.2800551252486836</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>79</v>
@@ -1828,19 +1828,19 @@
         <v>81348</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>65194</v>
+        <v>65362</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>96537</v>
+        <v>96826</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2919232565888351</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2339534777958044</v>
+        <v>0.2345574166451335</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3464295430891621</v>
+        <v>0.3474681989350806</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>182</v>
@@ -1849,19 +1849,19 @@
         <v>189791</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>164889</v>
+        <v>167305</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>214649</v>
+        <v>213358</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.258400504215798</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2244976365747955</v>
+        <v>0.2277858734866099</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2922460829872873</v>
+        <v>0.2904873862778161</v>
       </c>
     </row>
     <row r="20">
@@ -1878,19 +1878,19 @@
         <v>289660</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>267266</v>
+        <v>267418</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>309404</v>
+        <v>310940</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.635471098859948</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5863418905388521</v>
+        <v>0.5866742755781518</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6787849342776375</v>
+        <v>0.6821547663634372</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>144</v>
@@ -1899,19 +1899,19 @@
         <v>156083</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>139864</v>
+        <v>139346</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>173989</v>
+        <v>173441</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5601147408771016</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5019128099760768</v>
+        <v>0.5000551059881583</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6243735400333914</v>
+        <v>0.6224071097530151</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>415</v>
@@ -1920,19 +1920,19 @@
         <v>445743</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>419027</v>
+        <v>417516</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>473340</v>
+        <v>470999</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6068809259664659</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5705067840905681</v>
+        <v>0.568449933897783</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6444548483625445</v>
+        <v>0.6412669091910139</v>
       </c>
     </row>
     <row r="21">
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4486</v>
+        <v>5244</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003026527514051957</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01513673752914345</v>
+        <v>0.01769510397249163</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5802</v>
+        <v>6672</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01012805947493228</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03110642508432513</v>
+        <v>0.03576914473504262</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2066,19 +2066,19 @@
         <v>2786</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>906</v>
+        <v>890</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7565</v>
+        <v>7428</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005769695891050007</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001876413358711722</v>
+        <v>0.001842273611647655</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01566648287167086</v>
+        <v>0.01538272057712563</v>
       </c>
     </row>
     <row r="23">
@@ -2095,19 +2095,19 @@
         <v>6574</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2836</v>
+        <v>2876</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13238</v>
+        <v>13379</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02218234931223121</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009570195344349622</v>
+        <v>0.009703821196059599</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04466560905446256</v>
+        <v>0.04514446161689932</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7031</v>
+        <v>7135</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.006271481201050312</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03769358083617334</v>
+        <v>0.0382473701905837</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -2137,19 +2137,19 @@
         <v>7744</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3734</v>
+        <v>3648</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>14930</v>
+        <v>14072</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01603632469478125</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007732251609723818</v>
+        <v>0.007554163921166814</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0309170530560201</v>
+        <v>0.02914102678301676</v>
       </c>
     </row>
     <row r="24">
@@ -2166,19 +2166,19 @@
         <v>31373</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20418</v>
+        <v>21323</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>44411</v>
+        <v>46160</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1058592129752275</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06889550286615052</v>
+        <v>0.07194689559998955</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1498514119990382</v>
+        <v>0.155752463668394</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -2187,19 +2187,19 @@
         <v>21928</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13851</v>
+        <v>14131</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33417</v>
+        <v>32457</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1175510823471619</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07425362173833107</v>
+        <v>0.07575580220887272</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1791472773942487</v>
+        <v>0.1739980557256284</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>47</v>
@@ -2208,19 +2208,19 @@
         <v>53301</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>39311</v>
+        <v>40139</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>70286</v>
+        <v>69390</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1103755295257633</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08140448034394049</v>
+        <v>0.08311953311723401</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1455476519582185</v>
+        <v>0.1436920824151972</v>
       </c>
     </row>
     <row r="25">
@@ -2237,19 +2237,19 @@
         <v>48992</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37048</v>
+        <v>36370</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63253</v>
+        <v>63282</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1653080448320379</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1250050227516454</v>
+        <v>0.1227203090856556</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2134258990553573</v>
+        <v>0.2135253586724896</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -2258,19 +2258,19 @@
         <v>32957</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22550</v>
+        <v>22301</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45343</v>
+        <v>44252</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1766813833688851</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.120887205392024</v>
+        <v>0.1195520022619845</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2430806641787257</v>
+        <v>0.2372314936657882</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>77</v>
@@ -2279,19 +2279,19 @@
         <v>81950</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>64988</v>
+        <v>65525</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>100514</v>
+        <v>99868</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1697013198024297</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1345768092073857</v>
+        <v>0.1356887331154686</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2081451199458885</v>
+        <v>0.2068076473553341</v>
       </c>
     </row>
     <row r="26">
@@ -2308,19 +2308,19 @@
         <v>208532</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>192095</v>
+        <v>190295</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>224333</v>
+        <v>224192</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7036238653664514</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6481631155471513</v>
+        <v>0.642087902617107</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.756936813239247</v>
+        <v>0.7564617731294034</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>116</v>
@@ -2329,19 +2329,19 @@
         <v>128592</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>114859</v>
+        <v>114707</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>141506</v>
+        <v>142599</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6893679936079704</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6157451922236172</v>
+        <v>0.614934736497084</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7586000499591808</v>
+        <v>0.7644603346194073</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>303</v>
@@ -2350,19 +2350,19 @@
         <v>337124</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>314578</v>
+        <v>316042</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>359172</v>
+        <v>358340</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6981171300859759</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.651428492483943</v>
+        <v>0.6544607621056673</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7437737241566112</v>
+        <v>0.7420508744290438</v>
       </c>
     </row>
     <row r="27">
@@ -2454,19 +2454,19 @@
         <v>6250</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2231</v>
+        <v>2259</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13455</v>
+        <v>13113</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004424507423069666</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001579622118197396</v>
+        <v>0.00159898618326181</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.009525951917611212</v>
+        <v>0.009283333650788667</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -2475,19 +2475,19 @@
         <v>6176</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2112</v>
+        <v>2918</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12580</v>
+        <v>12684</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006571816897712833</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00224755997072674</v>
+        <v>0.003105332434833369</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01338654060615039</v>
+        <v>0.01349754769848096</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -2496,19 +2496,19 @@
         <v>12425</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6151</v>
+        <v>6998</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>20109</v>
+        <v>20975</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00528237921867576</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002615075360577036</v>
+        <v>0.002974856614102237</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.008548762175643355</v>
+        <v>0.008916946936198277</v>
       </c>
     </row>
     <row r="29">
@@ -2525,19 +2525,19 @@
         <v>21970</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14133</v>
+        <v>13742</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>34443</v>
+        <v>33199</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01555402636869903</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01000539460033519</v>
+        <v>0.009728874604467683</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02438450700879272</v>
+        <v>0.0235040842510532</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -2546,19 +2546,19 @@
         <v>20388</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12484</v>
+        <v>12087</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30860</v>
+        <v>30775</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02169568933526658</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01328488456987647</v>
+        <v>0.01286240558976059</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03283900210571515</v>
+        <v>0.0327487139468903</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -2567,19 +2567,19 @@
         <v>42358</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30507</v>
+        <v>30621</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>57659</v>
+        <v>56332</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01800768267644307</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01296935667995367</v>
+        <v>0.01301794095519282</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02451235220643562</v>
+        <v>0.02394841351218796</v>
       </c>
     </row>
     <row r="30">
@@ -2596,19 +2596,19 @@
         <v>163687</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>140868</v>
+        <v>139362</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>188959</v>
+        <v>188345</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1158849451245862</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09973017965643625</v>
+        <v>0.09866390544119687</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.133776457961313</v>
+        <v>0.1333419807229272</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>131</v>
@@ -2617,19 +2617,19 @@
         <v>141189</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>119267</v>
+        <v>121752</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>164412</v>
+        <v>165592</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.150242091144046</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1269147234982901</v>
+        <v>0.1295588783718061</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1749542457153757</v>
+        <v>0.1762097730127827</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>286</v>
@@ -2638,19 +2638,19 @@
         <v>304876</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>272384</v>
+        <v>270913</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>339753</v>
+        <v>339799</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1296109715291</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1157979701410477</v>
+        <v>0.1151723930559632</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1444384282821904</v>
+        <v>0.1444579209635281</v>
       </c>
     </row>
     <row r="31">
@@ -2667,19 +2667,19 @@
         <v>313553</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>285331</v>
+        <v>282761</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>349802</v>
+        <v>346764</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2219853798536984</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2020047361361544</v>
+        <v>0.2001852265223655</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2476479893274597</v>
+        <v>0.2454974314025077</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>203</v>
@@ -2688,19 +2688,19 @@
         <v>215608</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>191089</v>
+        <v>189943</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>241464</v>
+        <v>244038</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.229433161946946</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2033421521852307</v>
+        <v>0.2021223893599826</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2569463182966255</v>
+        <v>0.2596854672048728</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>502</v>
@@ -2709,19 +2709,19 @@
         <v>529161</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>486744</v>
+        <v>483343</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>570123</v>
+        <v>567716</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2249608439277248</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.206928031588985</v>
+        <v>0.2054821011283254</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.242374799253805</v>
+        <v>0.241351671135284</v>
       </c>
     </row>
     <row r="32">
@@ -2738,19 +2738,19 @@
         <v>907035</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>870662</v>
+        <v>870492</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>944142</v>
+        <v>946471</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6421511412299468</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6164001391431704</v>
+        <v>0.6162797423084584</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6684211443735057</v>
+        <v>0.6700704831312332</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>509</v>
@@ -2759,19 +2759,19 @@
         <v>556382</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>525974</v>
+        <v>522127</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>585103</v>
+        <v>587325</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5920572406760285</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5597001446509462</v>
+        <v>0.5556063248003628</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6226198131325281</v>
+        <v>0.6249848365711697</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1355</v>
@@ -2780,19 +2780,19 @@
         <v>1463416</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1417727</v>
+        <v>1417411</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1513391</v>
+        <v>1514844</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6221381226480563</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6027142867859544</v>
+        <v>0.6025799350116415</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.643383901232968</v>
+        <v>0.6440014994918771</v>
       </c>
     </row>
     <row r="33">
@@ -3124,19 +3124,19 @@
         <v>6273</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12718</v>
+        <v>12427</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0213690141191814</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0072910356476293</v>
+        <v>0.007271739229247588</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04331962489797204</v>
+        <v>0.04232866256138843</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -3145,19 +3145,19 @@
         <v>6122</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2083</v>
+        <v>2201</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13175</v>
+        <v>13122</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02208388531536653</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00751394559055006</v>
+        <v>0.007937899299430217</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04752479800630153</v>
+        <v>0.04733321212957196</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -3166,19 +3166,19 @@
         <v>12396</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6989</v>
+        <v>6962</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21685</v>
+        <v>21550</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02171621318515754</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01224338512375824</v>
+        <v>0.012197410339665</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03799064909127866</v>
+        <v>0.03775260522433702</v>
       </c>
     </row>
     <row r="5">
@@ -3195,19 +3195,19 @@
         <v>17402</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10768</v>
+        <v>9877</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28261</v>
+        <v>27335</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05927667668806174</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03667934770595267</v>
+        <v>0.03364246279284062</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09626520744370175</v>
+        <v>0.09310972073814576</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -3216,19 +3216,19 @@
         <v>14100</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7427</v>
+        <v>7620</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22426</v>
+        <v>21961</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05085950237202796</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02679151088375926</v>
+        <v>0.0274851945413589</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08089427995875989</v>
+        <v>0.07921400416898383</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -3237,19 +3237,19 @@
         <v>31502</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21641</v>
+        <v>21567</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43465</v>
+        <v>44449</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05518861848082011</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.037912580805497</v>
+        <v>0.03778366815453348</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07614582506562739</v>
+        <v>0.07787036491839437</v>
       </c>
     </row>
     <row r="6">
@@ -3266,19 +3266,19 @@
         <v>58244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46129</v>
+        <v>44286</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>74175</v>
+        <v>72664</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1983935803264822</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1571281645072251</v>
+        <v>0.1508478734125777</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2526588036525413</v>
+        <v>0.2475128447884466</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>51</v>
@@ -3287,19 +3287,19 @@
         <v>52564</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40053</v>
+        <v>40155</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>65673</v>
+        <v>67605</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1896035280609464</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1444755993393062</v>
+        <v>0.1448413372896822</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2368895400616984</v>
+        <v>0.243857464190483</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>102</v>
@@ -3308,19 +3308,19 @@
         <v>110808</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>92357</v>
+        <v>92997</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>130490</v>
+        <v>129298</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1941244225358736</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1618009216085398</v>
+        <v>0.1629210032689824</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2286062238403619</v>
+        <v>0.2265174254465903</v>
       </c>
     </row>
     <row r="7">
@@ -3337,19 +3337,19 @@
         <v>92753</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76497</v>
+        <v>77261</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109951</v>
+        <v>108847</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3159408928654675</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2605665754646144</v>
+        <v>0.2631688808155745</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3745215888283277</v>
+        <v>0.3707615184607678</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -3358,19 +3358,19 @@
         <v>88874</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>75063</v>
+        <v>73255</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105722</v>
+        <v>104995</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3205762452936458</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2707596322661555</v>
+        <v>0.2642367007835613</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3813502564938456</v>
+        <v>0.3787271183729261</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>174</v>
@@ -3379,19 +3379,19 @@
         <v>181627</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>160020</v>
+        <v>160179</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>204926</v>
+        <v>206235</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3181921935782702</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2803384843981105</v>
+        <v>0.2806171496545375</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3590096862832836</v>
+        <v>0.3613027555608666</v>
       </c>
     </row>
     <row r="8">
@@ -3408,19 +3408,19 @@
         <v>118905</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>101542</v>
+        <v>103118</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>136297</v>
+        <v>136662</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4050198360008071</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3458769902128935</v>
+        <v>0.351245770900992</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4642614482494483</v>
+        <v>0.4655052107146864</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>113</v>
@@ -3429,19 +3429,19 @@
         <v>115571</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>99686</v>
+        <v>98557</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>131675</v>
+        <v>131297</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4168768389580133</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3595773557428533</v>
+        <v>0.3555065978250913</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4749632896385939</v>
+        <v>0.4736018059962153</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>221</v>
@@ -3450,19 +3450,19 @@
         <v>234476</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>211736</v>
+        <v>210851</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>259245</v>
+        <v>258553</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4107785522198785</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3709393673016646</v>
+        <v>0.3693897284395865</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4541713929534227</v>
+        <v>0.4529596190252032</v>
       </c>
     </row>
     <row r="9">
@@ -3554,19 +3554,19 @@
         <v>10848</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5181</v>
+        <v>4888</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20557</v>
+        <v>19952</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02778054276443672</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01326875034486607</v>
+        <v>0.0125185482636006</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05264636563251299</v>
+        <v>0.05109683656265355</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3575,19 +3575,19 @@
         <v>4152</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9671</v>
+        <v>9379</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01537621285992365</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003771912687997087</v>
+        <v>0.003747926573536422</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03581253715466599</v>
+        <v>0.03473130990904971</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3596,19 +3596,19 @@
         <v>15000</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8106</v>
+        <v>8312</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25103</v>
+        <v>24636</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02270910343202042</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01227210606487416</v>
+        <v>0.0125843034595825</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03800492962499748</v>
+        <v>0.0372977981835709</v>
       </c>
     </row>
     <row r="11">
@@ -3625,19 +3625,19 @@
         <v>16134</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9210</v>
+        <v>9203</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26899</v>
+        <v>26096</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04131920012926377</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02358787335218307</v>
+        <v>0.02356801887581038</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06888728973750129</v>
+        <v>0.06683218428351441</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -3646,19 +3646,19 @@
         <v>8244</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3309</v>
+        <v>4076</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15658</v>
+        <v>15541</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03052885997932115</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0122538757435397</v>
+        <v>0.01509315398518749</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05798174569620845</v>
+        <v>0.05754791663461798</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -3667,19 +3667,19 @@
         <v>24378</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14764</v>
+        <v>15906</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>35428</v>
+        <v>36466</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03690763127646665</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02235129447636116</v>
+        <v>0.02408120554179857</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0536352114928182</v>
+        <v>0.05520793746759655</v>
       </c>
     </row>
     <row r="12">
@@ -3696,19 +3696,19 @@
         <v>75576</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59505</v>
+        <v>60107</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>90452</v>
+        <v>91296</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1935500297268585</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1523922799454991</v>
+        <v>0.153933149629422</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2316462167225335</v>
+        <v>0.2338079539504526</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -3717,19 +3717,19 @@
         <v>49361</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>37698</v>
+        <v>37547</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>63985</v>
+        <v>62060</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1827822197480568</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1395950652063475</v>
+        <v>0.1390359266224526</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.23693655680617</v>
+        <v>0.2298067649817603</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>119</v>
@@ -3738,19 +3738,19 @@
         <v>124937</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>107656</v>
+        <v>104530</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>145189</v>
+        <v>145461</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1891476722056665</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1629855901592208</v>
+        <v>0.1582530322009211</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2198073149641928</v>
+        <v>0.2202192477810712</v>
       </c>
     </row>
     <row r="13">
@@ -3767,19 +3767,19 @@
         <v>114415</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>97704</v>
+        <v>97326</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>132969</v>
+        <v>134072</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2930151313454832</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2502183786695926</v>
+        <v>0.2492512647994296</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3405324917858791</v>
+        <v>0.3433582117167657</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -3788,19 +3788,19 @@
         <v>71038</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57881</v>
+        <v>58313</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86239</v>
+        <v>85713</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2630522212827987</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2143307204371215</v>
+        <v>0.2159310901848828</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3193422383824409</v>
+        <v>0.3173934255439211</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>184</v>
@@ -3809,19 +3809,19 @@
         <v>185453</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>162907</v>
+        <v>162821</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>209229</v>
+        <v>208760</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2807649669452068</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2466321670728469</v>
+        <v>0.2465013616256954</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3167608406800713</v>
+        <v>0.3160501030427281</v>
       </c>
     </row>
     <row r="14">
@@ -3838,19 +3838,19 @@
         <v>173501</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>155228</v>
+        <v>153824</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>195856</v>
+        <v>194092</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4443350960339579</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3975363870563214</v>
+        <v>0.3939415872627308</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5015848695735496</v>
+        <v>0.4970675334773143</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>131</v>
@@ -3859,19 +3859,19 @@
         <v>137257</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>119451</v>
+        <v>120991</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>152744</v>
+        <v>154154</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5082604861298997</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4423258475550539</v>
+        <v>0.4480272041662028</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5656084626580375</v>
+        <v>0.570829139469917</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>296</v>
@@ -3880,19 +3880,19 @@
         <v>310759</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>284324</v>
+        <v>286127</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>335582</v>
+        <v>338114</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4704706261406397</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4304506736687477</v>
+        <v>0.4331794278528004</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5080513518367797</v>
+        <v>0.511885603220375</v>
       </c>
     </row>
     <row r="15">
@@ -3984,19 +3984,19 @@
         <v>3206</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8731</v>
+        <v>8403</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007027634475560285</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002204499775199222</v>
+        <v>0.00219808754035909</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01913958689998052</v>
+        <v>0.0184193344066714</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -4005,19 +4005,19 @@
         <v>4014</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9708</v>
+        <v>9782</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0138107826433574</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003343793049970016</v>
+        <v>0.003360281952305976</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03340372808111795</v>
+        <v>0.03365715218186217</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -4026,19 +4026,19 @@
         <v>7220</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3101</v>
+        <v>3118</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14798</v>
+        <v>14337</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009667376030116921</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004152560600577267</v>
+        <v>0.004174599779213472</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01981447678003576</v>
+        <v>0.01919715334159739</v>
       </c>
     </row>
     <row r="17">
@@ -4055,19 +4055,19 @@
         <v>11742</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6386</v>
+        <v>6256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20522</v>
+        <v>20968</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02573990959527648</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0139996706972038</v>
+        <v>0.01371325818716881</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04498475389837479</v>
+        <v>0.04596397354020558</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -4076,19 +4076,19 @@
         <v>11889</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6326</v>
+        <v>6238</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20520</v>
+        <v>19780</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04090707837581999</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02176502453928155</v>
+        <v>0.0214633741641681</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07060411718096161</v>
+        <v>0.06805946907432198</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -4097,19 +4097,19 @@
         <v>23631</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14940</v>
+        <v>14773</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34299</v>
+        <v>33812</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03164239096595503</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02000415849205226</v>
+        <v>0.01978176128414084</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04592693859979163</v>
+        <v>0.04527448533590762</v>
       </c>
     </row>
     <row r="18">
@@ -4126,19 +4126,19 @@
         <v>57127</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>44015</v>
+        <v>41945</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>75462</v>
+        <v>73527</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1252266198376243</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09648443312515161</v>
+        <v>0.09194659913498861</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1654175785366579</v>
+        <v>0.1611768175773998</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>45</v>
@@ -4147,19 +4147,19 @@
         <v>45156</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>34055</v>
+        <v>33435</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>58419</v>
+        <v>58345</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1553711842467738</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1171731877977777</v>
+        <v>0.1150398077995896</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2010055422353753</v>
+        <v>0.2007503456096203</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>95</v>
@@ -4168,19 +4168,19 @@
         <v>102283</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>83382</v>
+        <v>82876</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>122843</v>
+        <v>123312</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1369577301342587</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1116488758892379</v>
+        <v>0.1109710436572435</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1644875153673405</v>
+        <v>0.1651148752514537</v>
       </c>
     </row>
     <row r="19">
@@ -4197,19 +4197,19 @@
         <v>133461</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114705</v>
+        <v>114809</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>153983</v>
+        <v>153532</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2925574061596557</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2514426794264679</v>
+        <v>0.2516700267918128</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3375428278074161</v>
+        <v>0.3365534974458064</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>86</v>
@@ -4218,19 +4218,19 @@
         <v>83998</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>67596</v>
+        <v>69982</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98987</v>
+        <v>98230</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2890161398699376</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2325793778310653</v>
+        <v>0.2407900918182217</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3405888576864419</v>
+        <v>0.3379842910829894</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>212</v>
@@ -4239,19 +4239,19 @@
         <v>217460</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>193675</v>
+        <v>192055</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>242772</v>
+        <v>242756</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2911792809072694</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.259330868274686</v>
+        <v>0.2571619931748865</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3250724351218648</v>
+        <v>0.3250517121038499</v>
       </c>
     </row>
     <row r="20">
@@ -4268,19 +4268,19 @@
         <v>250652</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>228479</v>
+        <v>228458</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271328</v>
+        <v>272261</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5494484299318831</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5008446493369003</v>
+        <v>0.5007981651576953</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5947721893777278</v>
+        <v>0.5968171051594613</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>144</v>
@@ -4289,19 +4289,19 @@
         <v>145578</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>128881</v>
+        <v>128135</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>164919</v>
+        <v>163302</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5008948148641111</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4434478770164003</v>
+        <v>0.4408804815251401</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5674422381409076</v>
+        <v>0.5618783534776105</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>381</v>
@@ -4310,19 +4310,19 @@
         <v>396230</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>369847</v>
+        <v>368491</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>423413</v>
+        <v>424216</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5305532219624001</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4952262670785201</v>
+        <v>0.4934113018975931</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5669519373923971</v>
+        <v>0.5680262982849457</v>
       </c>
     </row>
     <row r="21">
@@ -4414,19 +4414,19 @@
         <v>3102</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>913</v>
+        <v>946</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8778</v>
+        <v>8521</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01127394357958675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003317043350203416</v>
+        <v>0.003438179224154508</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03190152569982144</v>
+        <v>0.0309698687287365</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7044</v>
+        <v>6804</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01015633689525324</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0362996448440711</v>
+        <v>0.03506184089036882</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -4456,19 +4456,19 @@
         <v>5073</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1876</v>
+        <v>1947</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10493</v>
+        <v>12117</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01081170909286837</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003997261070310045</v>
+        <v>0.00415029527654044</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02236237974125657</v>
+        <v>0.02582393691619933</v>
       </c>
     </row>
     <row r="23">
@@ -4485,19 +4485,19 @@
         <v>9494</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4517</v>
+        <v>4228</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18903</v>
+        <v>17965</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03450451800320987</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01641641704532658</v>
+        <v>0.01536621239052177</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06870108418810668</v>
+        <v>0.06529277464867166</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5747</v>
+        <v>6365</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009524334390484404</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02961540550948083</v>
+        <v>0.0328001663918023</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -4527,19 +4527,19 @@
         <v>11342</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5826</v>
+        <v>5749</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21507</v>
+        <v>20114</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02417288477998428</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01241574024319434</v>
+        <v>0.01225339055913546</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04583563258828471</v>
+        <v>0.04286764991806614</v>
       </c>
     </row>
     <row r="24">
@@ -4556,19 +4556,19 @@
         <v>22243</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14109</v>
+        <v>13672</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>34035</v>
+        <v>34899</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08083816905567842</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05127604712213785</v>
+        <v>0.04969044336690653</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1236963630954004</v>
+        <v>0.1268360203037311</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -4577,19 +4577,19 @@
         <v>12469</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6522</v>
+        <v>6910</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20324</v>
+        <v>21385</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06425398751995727</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03360636490260632</v>
+        <v>0.03560613263050156</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1047266043655441</v>
+        <v>0.1101960023372248</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>31</v>
@@ -4598,19 +4598,19 @@
         <v>34712</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>24321</v>
+        <v>24599</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>49296</v>
+        <v>48919</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07397906491173707</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05183354524667617</v>
+        <v>0.05242652989028203</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.105060953123349</v>
+        <v>0.104258806502675</v>
       </c>
     </row>
     <row r="25">
@@ -4627,19 +4627,19 @@
         <v>60795</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47793</v>
+        <v>46760</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>76562</v>
+        <v>76346</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2209528910907677</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.173699072068535</v>
+        <v>0.1699458699459746</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2782571698609194</v>
+        <v>0.2774720144814333</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -4648,19 +4648,19 @@
         <v>44502</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33718</v>
+        <v>34686</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>56527</v>
+        <v>58327</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2293190846648724</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1737460450478147</v>
+        <v>0.178733758196564</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2912804920853668</v>
+        <v>0.3005575071519402</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>97</v>
@@ -4669,19 +4669,19 @@
         <v>105297</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>86100</v>
+        <v>87196</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>124224</v>
+        <v>124059</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2244130915769693</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1834999099220207</v>
+        <v>0.1858341681847616</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2647498865513512</v>
+        <v>0.2643981576163228</v>
       </c>
     </row>
     <row r="26">
@@ -4698,19 +4698,19 @@
         <v>179516</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>162412</v>
+        <v>162054</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>195730</v>
+        <v>195390</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6524304782707572</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5902678156076754</v>
+        <v>0.5889664933162427</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7113588610450216</v>
+        <v>0.7101235751647922</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>125</v>
@@ -4719,19 +4719,19 @@
         <v>133272</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>120791</v>
+        <v>118620</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>146190</v>
+        <v>144410</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6867462565294327</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.622434302099396</v>
+        <v>0.6112454824781287</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7533100380267518</v>
+        <v>0.7441398154937541</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>290</v>
@@ -4740,19 +4740,19 @@
         <v>312788</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>289618</v>
+        <v>291851</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>333029</v>
+        <v>333698</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.666623249638441</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6172425079255888</v>
+        <v>0.6220027884843211</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7097615819211855</v>
+        <v>0.7111889069965323</v>
       </c>
     </row>
     <row r="27">
@@ -4844,19 +4844,19 @@
         <v>23429</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15135</v>
+        <v>14676</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>35866</v>
+        <v>36069</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01655303627197385</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01069305870356626</v>
+        <v>0.01036863270148702</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0253403232540594</v>
+        <v>0.0254834426674644</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -4865,19 +4865,19 @@
         <v>16260</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9304</v>
+        <v>9742</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25895</v>
+        <v>24580</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01575569590313318</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00901614293030599</v>
+        <v>0.009439703115118913</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02509242740835852</v>
+        <v>0.02381830527484279</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>37</v>
@@ -4886,19 +4886,19 @@
         <v>39689</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>28347</v>
+        <v>28539</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>53951</v>
+        <v>53613</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01621682228741202</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0115824916514228</v>
+        <v>0.01166113493180629</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02204459993398842</v>
+        <v>0.02190642447241989</v>
       </c>
     </row>
     <row r="29">
@@ -4915,19 +4915,19 @@
         <v>54773</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>40533</v>
+        <v>40724</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>72852</v>
+        <v>72222</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03869785495553494</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02863753022773806</v>
+        <v>0.02877213202820215</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05147136584729374</v>
+        <v>0.05102618530289325</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>36</v>
@@ -4936,19 +4936,19 @@
         <v>36082</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25884</v>
+        <v>25678</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>50198</v>
+        <v>50015</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03496339061530682</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02508168913172517</v>
+        <v>0.02488201188460338</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04864266656303666</v>
+        <v>0.04846514936217312</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>85</v>
@@ -4957,19 +4957,19 @@
         <v>90854</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>72653</v>
+        <v>75147</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>111589</v>
+        <v>115044</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03712314585375229</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02968627768558293</v>
+        <v>0.03070514942917368</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04559552021280654</v>
+        <v>0.04700714095879067</v>
       </c>
     </row>
     <row r="30">
@@ -4986,19 +4986,19 @@
         <v>213190</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>187328</v>
+        <v>186841</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>242655</v>
+        <v>244739</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1506226530631507</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1323510726773043</v>
+        <v>0.1320070535901692</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1714406400874617</v>
+        <v>0.1729130308187709</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>156</v>
@@ -5007,19 +5007,19 @@
         <v>159550</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>138951</v>
+        <v>137477</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>186140</v>
+        <v>184567</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1546058641526799</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1346448257776672</v>
+        <v>0.1332167496326551</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1803708896355655</v>
+        <v>0.1788468546230602</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>347</v>
@@ -5028,19 +5028,19 @@
         <v>372740</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>337308</v>
+        <v>337006</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>412172</v>
+        <v>411822</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1523022510417513</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1378245811730702</v>
+        <v>0.1377010449893178</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1684142562701759</v>
+        <v>0.1682713090669177</v>
       </c>
     </row>
     <row r="31">
@@ -5057,19 +5057,19 @@
         <v>401425</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>367201</v>
+        <v>365072</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>436784</v>
+        <v>434025</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2836140593411323</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2594341775841734</v>
+        <v>0.2579306150564586</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3085963458164803</v>
+        <v>0.3066467465771847</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>287</v>
@@ -5078,19 +5078,19 @@
         <v>288412</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>257647</v>
+        <v>257754</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>314710</v>
+        <v>316843</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2794741276374059</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.249662228613397</v>
+        <v>0.2497664049842475</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3049566196268461</v>
+        <v>0.3070240367039641</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>667</v>
@@ -5099,19 +5099,19 @@
         <v>689837</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>645084</v>
+        <v>647785</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>735130</v>
+        <v>736089</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2818683770850746</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2635821575867262</v>
+        <v>0.2646857686717656</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3003750621576398</v>
+        <v>0.300767045550261</v>
       </c>
     </row>
     <row r="32">
@@ -5128,19 +5128,19 @@
         <v>722574</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>685842</v>
+        <v>683721</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>761933</v>
+        <v>758940</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5105123963682082</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4845606251133414</v>
+        <v>0.4830622316737062</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5383202331818514</v>
+        <v>0.5362052586012975</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>513</v>
@@ -5149,19 +5149,19 @@
         <v>531678</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>501107</v>
+        <v>499365</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>566751</v>
+        <v>563476</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5152009216914741</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4855773087789723</v>
+        <v>0.48388885061366</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5491868493683983</v>
+        <v>0.5460136689357471</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1188</v>
@@ -5170,19 +5170,19 @@
         <v>1254252</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1202953</v>
+        <v>1201832</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1303064</v>
+        <v>1300642</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5124894037320098</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4915284432613086</v>
+        <v>0.4910705209304425</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5324340807563674</v>
+        <v>0.5314444430061928</v>
       </c>
     </row>
     <row r="33">
